--- a/workbooks/results_4weeks_1.xlsx
+++ b/workbooks/results_4weeks_1.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="4054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="4072">
   <si>
     <t>timestamp</t>
   </si>
@@ -12175,6 +12176,60 @@
   </si>
   <si>
     <t>2022-10-31 02:50:00</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>yhat_lower</t>
+  </si>
+  <si>
+    <t>yhat_upper</t>
+  </si>
+  <si>
+    <t>trend_lower</t>
+  </si>
+  <si>
+    <t>trend_upper</t>
+  </si>
+  <si>
+    <t>additive_terms</t>
+  </si>
+  <si>
+    <t>additive_terms_lower</t>
+  </si>
+  <si>
+    <t>additive_terms_upper</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>daily_lower</t>
+  </si>
+  <si>
+    <t>daily_upper</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>weekly_lower</t>
+  </si>
+  <si>
+    <t>weekly_upper</t>
+  </si>
+  <si>
+    <t>multiplicative_terms</t>
+  </si>
+  <si>
+    <t>multiplicative_terms_lower</t>
+  </si>
+  <si>
+    <t>multiplicative_terms_upper</t>
+  </si>
+  <si>
+    <t>Prophet</t>
   </si>
   <si>
     <t>Original</t>
@@ -36809,11 +36864,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>Sheet3!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TimeGPT</c:v>
+                  <c:v>Prophet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -36885,206 +36940,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$19</c:f>
+              <c:f>Sheet3!$T$2:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.362115383148193</c:v>
+                  <c:v>1.177850094744089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.412415981292725</c:v>
+                  <c:v>1.184796647276246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.413971900939941</c:v>
+                  <c:v>1.193418670862258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.386648416519165</c:v>
+                  <c:v>1.203678187419201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.419901013374329</c:v>
+                  <c:v>1.215456863347536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.42881441116333</c:v>
+                  <c:v>1.228559843492953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.469278812408447</c:v>
+                  <c:v>1.242722365560235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.477609872817993</c:v>
+                  <c:v>1.257618944525066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.494337558746338</c:v>
+                  <c:v>1.27287483539312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.483959913253784</c:v>
+                  <c:v>1.288079410148313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.523761868476868</c:v>
+                  <c:v>1.302801023850548</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.537818670272827</c:v>
+                  <c:v>1.316602896549716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.515266537666321</c:v>
+                  <c:v>1.329059504056162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.485319137573242</c:v>
+                  <c:v>1.339772952818184</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.438555955886841</c:v>
+                  <c:v>1.34838881187438</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.411181688308716</c:v>
+                  <c:v>1.354610889505393</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.412561774253845</c:v>
+                  <c:v>1.358214471843287</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.422101974487305</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Original</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$B$2:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>2022-10-31 00:00:00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022-10-31 00:10:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2022-10-31 00:20:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022-10-31 00:30:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2022-10-31 00:40:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022-10-31 00:50:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2022-10-31 01:00:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2022-10-31 01:10:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2022-10-31 01:20:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022-10-31 01:30:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022-10-31 01:40:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2022-10-31 01:50:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022-10-31 02:00:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2022-10-31 02:10:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2022-10-31 02:20:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2022-10-31 02:30:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2022-10-31 02:40:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2022-10-31 02:50:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$D$2:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1.071429</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.106897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.289286</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9793103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.042857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.406896</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.035714</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.317241</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.228571</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.544828</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.657143</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.568965</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.42069</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.228571</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.27931</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.867857</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.855173</c:v>
+                  <c:v>1.359057585860731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37152,6 +37064,523 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TimeGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2022-10-31 00:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022-10-31 00:10:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022-10-31 00:20:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022-10-31 00:30:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022-10-31 00:40:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-10-31 00:50:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-10-31 01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-10-31 01:10:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-10-31 01:20:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-10-31 01:30:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-10-31 01:40:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-10-31 01:50:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-10-31 02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-10-31 02:10:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-10-31 02:20:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-10-31 02:30:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-10-31 02:40:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-10-31 02:50:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.362115383148193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.412415981292725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.413971900939941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.386648416519165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.419901013374329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.42881441116333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.469278812408447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.477609872817993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.494337558746338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.483959913253784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.523761868476868</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.537818670272827</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.515266537666321</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.485319137573242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.438555955886841</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.411181688308716</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.412561774253845</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.422101974487305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2022-10-31 00:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022-10-31 00:10:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022-10-31 00:20:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022-10-31 00:30:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022-10-31 00:40:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-10-31 00:50:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-10-31 01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-10-31 01:10:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-10-31 01:20:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-10-31 01:30:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-10-31 01:40:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-10-31 01:50:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-10-31 02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-10-31 02:10:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-10-31 02:20:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-10-31 02:30:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-10-31 02:40:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-10-31 02:50:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.071429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.106897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.289286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9793103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.042857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.406896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.317241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.228571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.544828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.657143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.568965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.42069</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.228571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.27931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.867857</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.855173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prophet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2022-10-31 00:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022-10-31 00:10:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022-10-31 00:20:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022-10-31 00:30:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022-10-31 00:40:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-10-31 00:50:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-10-31 01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-10-31 01:10:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-10-31 01:20:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-10-31 01:30:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-10-31 01:40:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-10-31 01:50:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-10-31 02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-10-31 02:10:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-10-31 02:20:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-10-31 02:30:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-10-31 02:40:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-10-31 02:50:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$V$2:$V$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.177850094744089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.184796647276246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.193418670862258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.203678187419201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.215456863347536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.228559843492953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.242722365560235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.257618944525066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.27287483539312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.288079410148313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.302801023850548</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.316602896549716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.329059504056162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.339772952818184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.34838881187438</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.354610889505393</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.358214471843287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.359057585860731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>timestamp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>wind_speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -37241,6 +37670,41 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -82154,24 +82618,1267 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1">
+        <v>4032</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C2">
+        <v>1.737594071445008</v>
+      </c>
+      <c r="D2">
+        <v>0.0787572010319053</v>
+      </c>
+      <c r="E2">
+        <v>2.328668420182324</v>
+      </c>
+      <c r="F2">
+        <v>1.737594071445008</v>
+      </c>
+      <c r="G2">
+        <v>1.737594071445008</v>
+      </c>
+      <c r="H2">
+        <v>-0.559743976700919</v>
+      </c>
+      <c r="I2">
+        <v>-0.559743976700919</v>
+      </c>
+      <c r="J2">
+        <v>-0.559743976700919</v>
+      </c>
+      <c r="K2">
+        <v>-0.542828320449566</v>
+      </c>
+      <c r="L2">
+        <v>-0.542828320449566</v>
+      </c>
+      <c r="M2">
+        <v>-0.542828320449566</v>
+      </c>
+      <c r="N2">
+        <v>-0.01691565625135308</v>
+      </c>
+      <c r="O2">
+        <v>-0.01691565625135308</v>
+      </c>
+      <c r="P2">
+        <v>-0.01691565625135308</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1.177850094744089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
+        <v>4033</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4036</v>
+      </c>
+      <c r="C3">
+        <v>1.737120276777047</v>
+      </c>
+      <c r="D3">
+        <v>0.07739611451655758</v>
+      </c>
+      <c r="E3">
+        <v>2.243691961326306</v>
+      </c>
+      <c r="F3">
+        <v>1.737120276777047</v>
+      </c>
+      <c r="G3">
+        <v>1.737120276777047</v>
+      </c>
+      <c r="H3">
+        <v>-0.5523236295008012</v>
+      </c>
+      <c r="I3">
+        <v>-0.5523236295008012</v>
+      </c>
+      <c r="J3">
+        <v>-0.5523236295008012</v>
+      </c>
+      <c r="K3">
+        <v>-0.5364825407582504</v>
+      </c>
+      <c r="L3">
+        <v>-0.5364825407582504</v>
+      </c>
+      <c r="M3">
+        <v>-0.5364825407582504</v>
+      </c>
+      <c r="N3">
+        <v>-0.01584108874255088</v>
+      </c>
+      <c r="O3">
+        <v>-0.01584108874255088</v>
+      </c>
+      <c r="P3">
+        <v>-0.01584108874255088</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1.184796647276246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
         <v>4034</v>
       </c>
+      <c r="B4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C4">
+        <v>1.736646482109087</v>
+      </c>
+      <c r="D4">
+        <v>0.1681400242161351</v>
+      </c>
+      <c r="E4">
+        <v>2.281413676522093</v>
+      </c>
+      <c r="F4">
+        <v>1.736646482109087</v>
+      </c>
+      <c r="G4">
+        <v>1.736646482109087</v>
+      </c>
+      <c r="H4">
+        <v>-0.543227811246829</v>
+      </c>
+      <c r="I4">
+        <v>-0.543227811246829</v>
+      </c>
+      <c r="J4">
+        <v>-0.543227811246829</v>
+      </c>
+      <c r="K4">
+        <v>-0.528445461760782</v>
+      </c>
+      <c r="L4">
+        <v>-0.528445461760782</v>
+      </c>
+      <c r="M4">
+        <v>-0.528445461760782</v>
+      </c>
+      <c r="N4">
+        <v>-0.01478234948604682</v>
+      </c>
+      <c r="O4">
+        <v>-0.01478234948604682</v>
+      </c>
+      <c r="P4">
+        <v>-0.01478234948604682</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1.193418670862258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
+        <v>4035</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C5">
+        <v>1.736172687441127</v>
+      </c>
+      <c r="D5">
+        <v>0.1009291008829392</v>
+      </c>
+      <c r="E5">
+        <v>2.268108641741043</v>
+      </c>
+      <c r="F5">
+        <v>1.736172687441127</v>
+      </c>
+      <c r="G5">
+        <v>1.736172687441127</v>
+      </c>
+      <c r="H5">
+        <v>-0.5324945000219258</v>
+      </c>
+      <c r="I5">
+        <v>-0.5324945000219258</v>
+      </c>
+      <c r="J5">
+        <v>-0.5324945000219258</v>
+      </c>
+      <c r="K5">
+        <v>-0.5187545199518582</v>
+      </c>
+      <c r="L5">
+        <v>-0.5187545199518582</v>
+      </c>
+      <c r="M5">
+        <v>-0.5187545199518582</v>
+      </c>
+      <c r="N5">
+        <v>-0.01373998007006757</v>
+      </c>
+      <c r="O5">
+        <v>-0.01373998007006757</v>
+      </c>
+      <c r="P5">
+        <v>-0.01373998007006757</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1.203678187419201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
+        <v>4036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C6">
+        <v>1.735698892773166</v>
+      </c>
+      <c r="D6">
+        <v>0.1277466928345994</v>
+      </c>
+      <c r="E6">
+        <v>2.405639328111716</v>
+      </c>
+      <c r="F6">
+        <v>1.735698892773166</v>
+      </c>
+      <c r="G6">
+        <v>1.735698892773166</v>
+      </c>
+      <c r="H6">
+        <v>-0.5202420294256299</v>
+      </c>
+      <c r="I6">
+        <v>-0.5202420294256299</v>
+      </c>
+      <c r="J6">
+        <v>-0.5202420294256299</v>
+      </c>
+      <c r="K6">
+        <v>-0.5075275175049007</v>
+      </c>
+      <c r="L6">
+        <v>-0.5075275175049007</v>
+      </c>
+      <c r="M6">
+        <v>-0.5075275175049007</v>
+      </c>
+      <c r="N6">
+        <v>-0.01271451192072928</v>
+      </c>
+      <c r="O6">
+        <v>-0.01271451192072928</v>
+      </c>
+      <c r="P6">
+        <v>-0.01271451192072928</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1.215456863347536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>4037</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C7">
+        <v>1.735225098105206</v>
+      </c>
+      <c r="D7">
+        <v>0.1827039274270616</v>
+      </c>
+      <c r="E7">
+        <v>2.405409892467582</v>
+      </c>
+      <c r="F7">
+        <v>1.735225098105206</v>
+      </c>
+      <c r="G7">
+        <v>1.735225098105206</v>
+      </c>
+      <c r="H7">
+        <v>-0.506665254612253</v>
+      </c>
+      <c r="I7">
+        <v>-0.506665254612253</v>
+      </c>
+      <c r="J7">
+        <v>-0.506665254612253</v>
+      </c>
+      <c r="K7">
+        <v>-0.494958788468657</v>
+      </c>
+      <c r="L7">
+        <v>-0.494958788468657</v>
+      </c>
+      <c r="M7">
+        <v>-0.494958788468657</v>
+      </c>
+      <c r="N7">
+        <v>-0.01170646614359618</v>
+      </c>
+      <c r="O7">
+        <v>-0.01170646614359618</v>
+      </c>
+      <c r="P7">
+        <v>-0.01170646614359618</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1.228559843492953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>4038</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C8">
+        <v>1.734751303437245</v>
+      </c>
+      <c r="D8">
+        <v>0.1833272785701363</v>
+      </c>
+      <c r="E8">
+        <v>2.283772693459088</v>
+      </c>
+      <c r="F8">
+        <v>1.734751303437245</v>
+      </c>
+      <c r="G8">
+        <v>1.734751303437245</v>
+      </c>
+      <c r="H8">
+        <v>-0.4920289378770107</v>
+      </c>
+      <c r="I8">
+        <v>-0.4920289378770107</v>
+      </c>
+      <c r="J8">
+        <v>-0.4920289378770107</v>
+      </c>
+      <c r="K8">
+        <v>-0.4813125845148218</v>
+      </c>
+      <c r="L8">
+        <v>-0.4813125845148218</v>
+      </c>
+      <c r="M8">
+        <v>-0.4813125845148218</v>
+      </c>
+      <c r="N8">
+        <v>-0.01071635336218896</v>
+      </c>
+      <c r="O8">
+        <v>-0.01071635336218896</v>
+      </c>
+      <c r="P8">
+        <v>-0.01071635336218896</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1.242722365560235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>4039</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C9">
+        <v>1.734277508769285</v>
+      </c>
+      <c r="D9">
+        <v>0.1023521692723159</v>
+      </c>
+      <c r="E9">
+        <v>2.460107953405447</v>
+      </c>
+      <c r="F9">
+        <v>1.734277508769285</v>
+      </c>
+      <c r="G9">
+        <v>1.734277508769285</v>
+      </c>
+      <c r="H9">
+        <v>-0.4766585642442197</v>
+      </c>
+      <c r="I9">
+        <v>-0.4766585642442197</v>
+      </c>
+      <c r="J9">
+        <v>-0.4766585642442197</v>
+      </c>
+      <c r="K9">
+        <v>-0.4669138906780148</v>
+      </c>
+      <c r="L9">
+        <v>-0.4669138906780148</v>
+      </c>
+      <c r="M9">
+        <v>-0.4669138906780148</v>
+      </c>
+      <c r="N9">
+        <v>-0.009744673566205024</v>
+      </c>
+      <c r="O9">
+        <v>-0.009744673566205024</v>
+      </c>
+      <c r="P9">
+        <v>-0.009744673566205024</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1.257618944525066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>4040</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C10">
+        <v>1.733803714101325</v>
+      </c>
+      <c r="D10">
+        <v>0.2030402030974302</v>
+      </c>
+      <c r="E10">
+        <v>2.438130803551603</v>
+      </c>
+      <c r="F10">
+        <v>1.733803714101325</v>
+      </c>
+      <c r="G10">
+        <v>1.733803714101325</v>
+      </c>
+      <c r="H10">
+        <v>-0.4609288787082055</v>
+      </c>
+      <c r="I10">
+        <v>-0.4609288787082055</v>
+      </c>
+      <c r="J10">
+        <v>-0.4609288787082055</v>
+      </c>
+      <c r="K10">
+        <v>-0.4521369627524683</v>
+      </c>
+      <c r="L10">
+        <v>-0.4521369627524683</v>
+      </c>
+      <c r="M10">
+        <v>-0.4521369627524683</v>
+      </c>
+      <c r="N10">
+        <v>-0.008791915955737228</v>
+      </c>
+      <c r="O10">
+        <v>-0.008791915955737228</v>
+      </c>
+      <c r="P10">
+        <v>-0.008791915955737228</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1.27287483539312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>4041</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C11">
+        <v>1.733329919433365</v>
+      </c>
+      <c r="D11">
+        <v>0.1497040197137708</v>
+      </c>
+      <c r="E11">
+        <v>2.439350541017663</v>
+      </c>
+      <c r="F11">
+        <v>1.733329919433365</v>
+      </c>
+      <c r="G11">
+        <v>1.733329919433365</v>
+      </c>
+      <c r="H11">
+        <v>-0.4452505092850517</v>
+      </c>
+      <c r="I11">
+        <v>-0.4452505092850517</v>
+      </c>
+      <c r="J11">
+        <v>-0.4452505092850517</v>
+      </c>
+      <c r="K11">
+        <v>-0.4373919504820181</v>
+      </c>
+      <c r="L11">
+        <v>-0.4373919504820181</v>
+      </c>
+      <c r="M11">
+        <v>-0.4373919504820181</v>
+      </c>
+      <c r="N11">
+        <v>-0.00785855880303358</v>
+      </c>
+      <c r="O11">
+        <v>-0.00785855880303358</v>
+      </c>
+      <c r="P11">
+        <v>-0.00785855880303358</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1.288079410148313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>4042</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C12">
+        <v>1.732856124765404</v>
+      </c>
+      <c r="D12">
+        <v>0.1569772040953756</v>
+      </c>
+      <c r="E12">
+        <v>2.277760859886464</v>
+      </c>
+      <c r="F12">
+        <v>1.732856124765404</v>
+      </c>
+      <c r="G12">
+        <v>1.732856124765404</v>
+      </c>
+      <c r="H12">
+        <v>-0.4300551009148568</v>
+      </c>
+      <c r="I12">
+        <v>-0.4300551009148568</v>
+      </c>
+      <c r="J12">
+        <v>-0.4300551009148568</v>
+      </c>
+      <c r="K12">
+        <v>-0.4231100316087395</v>
+      </c>
+      <c r="L12">
+        <v>-0.4231100316087395</v>
+      </c>
+      <c r="M12">
+        <v>-0.4231100316087395</v>
+      </c>
+      <c r="N12">
+        <v>-0.006945069306117269</v>
+      </c>
+      <c r="O12">
+        <v>-0.006945069306117269</v>
+      </c>
+      <c r="P12">
+        <v>-0.006945069306117269</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1.302801023850548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>4043</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C13">
+        <v>1.732382330097444</v>
+      </c>
+      <c r="D13">
+        <v>0.2448330490942671</v>
+      </c>
+      <c r="E13">
+        <v>2.428870948908227</v>
+      </c>
+      <c r="F13">
+        <v>1.732382330097444</v>
+      </c>
+      <c r="G13">
+        <v>1.732382330097444</v>
+      </c>
+      <c r="H13">
+        <v>-0.4157794335477281</v>
+      </c>
+      <c r="I13">
+        <v>-0.4157794335477281</v>
+      </c>
+      <c r="J13">
+        <v>-0.4157794335477281</v>
+      </c>
+      <c r="K13">
+        <v>-0.4097275300936702</v>
+      </c>
+      <c r="L13">
+        <v>-0.4097275300936702</v>
+      </c>
+      <c r="M13">
+        <v>-0.4097275300936702</v>
+      </c>
+      <c r="N13">
+        <v>-0.006051903454057783</v>
+      </c>
+      <c r="O13">
+        <v>-0.006051903454057783</v>
+      </c>
+      <c r="P13">
+        <v>-0.006051903454057783</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1.316602896549716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>4044</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C14">
+        <v>1.731908535429484</v>
+      </c>
+      <c r="D14">
+        <v>0.2165127543407404</v>
+      </c>
+      <c r="E14">
+        <v>2.405636489468698</v>
+      </c>
+      <c r="F14">
+        <v>1.731908535429484</v>
+      </c>
+      <c r="G14">
+        <v>1.731908535429484</v>
+      </c>
+      <c r="H14">
+        <v>-0.4028490313733219</v>
+      </c>
+      <c r="I14">
+        <v>-0.4028490313733219</v>
+      </c>
+      <c r="J14">
+        <v>-0.4028490313733219</v>
+      </c>
+      <c r="K14">
+        <v>-0.3976695254780407</v>
+      </c>
+      <c r="L14">
+        <v>-0.3976695254780407</v>
+      </c>
+      <c r="M14">
+        <v>-0.3976695254780407</v>
+      </c>
+      <c r="N14">
+        <v>-0.005179505895281335</v>
+      </c>
+      <c r="O14">
+        <v>-0.005179505895281335</v>
+      </c>
+      <c r="P14">
+        <v>-0.005179505895281335</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1.329059504056162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>4045</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C15">
+        <v>1.731434740761523</v>
+      </c>
+      <c r="D15">
+        <v>0.3024060951192345</v>
+      </c>
+      <c r="E15">
+        <v>2.391907238455756</v>
+      </c>
+      <c r="F15">
+        <v>1.731434740761523</v>
+      </c>
+      <c r="G15">
+        <v>1.731434740761523</v>
+      </c>
+      <c r="H15">
+        <v>-0.3916617879433398</v>
+      </c>
+      <c r="I15">
+        <v>-0.3916617879433398</v>
+      </c>
+      <c r="J15">
+        <v>-0.3916617879433398</v>
+      </c>
+      <c r="K15">
+        <v>-0.3873334781339848</v>
+      </c>
+      <c r="L15">
+        <v>-0.3873334781339848</v>
+      </c>
+      <c r="M15">
+        <v>-0.3873334781339848</v>
+      </c>
+      <c r="N15">
+        <v>-0.004328309809355033</v>
+      </c>
+      <c r="O15">
+        <v>-0.004328309809355033</v>
+      </c>
+      <c r="P15">
+        <v>-0.004328309809355033</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1.339772952818184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>4046</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C16">
+        <v>1.730960946093563</v>
+      </c>
+      <c r="D16">
+        <v>0.2772369906587898</v>
+      </c>
+      <c r="E16">
+        <v>2.408424538789537</v>
+      </c>
+      <c r="F16">
+        <v>1.730960946093563</v>
+      </c>
+      <c r="G16">
+        <v>1.730960946093563</v>
+      </c>
+      <c r="H16">
+        <v>-0.3825721342191833</v>
+      </c>
+      <c r="I16">
+        <v>-0.3825721342191833</v>
+      </c>
+      <c r="J16">
+        <v>-0.3825721342191833</v>
+      </c>
+      <c r="K16">
+        <v>-0.3790733974335553</v>
+      </c>
+      <c r="L16">
+        <v>-0.3790733974335553</v>
+      </c>
+      <c r="M16">
+        <v>-0.3790733974335553</v>
+      </c>
+      <c r="N16">
+        <v>-0.003498736785628075</v>
+      </c>
+      <c r="O16">
+        <v>-0.003498736785628075</v>
+      </c>
+      <c r="P16">
+        <v>-0.003498736785628075</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1.34838881187438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>4047</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C17">
+        <v>1.730487151425603</v>
+      </c>
+      <c r="D17">
+        <v>0.1825806126180849</v>
+      </c>
+      <c r="E17">
+        <v>2.46543658891659</v>
+      </c>
+      <c r="F17">
+        <v>1.730487151425603</v>
+      </c>
+      <c r="G17">
+        <v>1.730487151425603</v>
+      </c>
+      <c r="H17">
+        <v>-0.37587626192021</v>
+      </c>
+      <c r="I17">
+        <v>-0.37587626192021</v>
+      </c>
+      <c r="J17">
+        <v>-0.37587626192021</v>
+      </c>
+      <c r="K17">
+        <v>-0.3731850652159587</v>
+      </c>
+      <c r="L17">
+        <v>-0.3731850652159587</v>
+      </c>
+      <c r="M17">
+        <v>-0.3731850652159587</v>
+      </c>
+      <c r="N17">
+        <v>-0.002691196704251125</v>
+      </c>
+      <c r="O17">
+        <v>-0.002691196704251125</v>
+      </c>
+      <c r="P17">
+        <v>-0.002691196704251125</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1.354610889505393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>4048</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4051</v>
+      </c>
+      <c r="C18">
+        <v>1.730013356757642</v>
+      </c>
+      <c r="D18">
+        <v>0.3106305417467455</v>
+      </c>
+      <c r="E18">
+        <v>2.514893601956908</v>
+      </c>
+      <c r="F18">
+        <v>1.730013356757642</v>
+      </c>
+      <c r="G18">
+        <v>1.730013356757642</v>
+      </c>
+      <c r="H18">
+        <v>-0.3717988849143548</v>
+      </c>
+      <c r="I18">
+        <v>-0.3717988849143548</v>
+      </c>
+      <c r="J18">
+        <v>-0.3717988849143548</v>
+      </c>
+      <c r="K18">
+        <v>-0.3698927972900834</v>
+      </c>
+      <c r="L18">
+        <v>-0.3698927972900834</v>
+      </c>
+      <c r="M18">
+        <v>-0.3698927972900834</v>
+      </c>
+      <c r="N18">
+        <v>-0.001906087624271341</v>
+      </c>
+      <c r="O18">
+        <v>-0.001906087624271341</v>
+      </c>
+      <c r="P18">
+        <v>-0.001906087624271341</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1.358214471843287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>4049</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C19">
+        <v>1.729539562089682</v>
+      </c>
+      <c r="D19">
+        <v>0.3264393409966977</v>
+      </c>
+      <c r="E19">
+        <v>2.465941669354299</v>
+      </c>
+      <c r="F19">
+        <v>1.729539562089682</v>
+      </c>
+      <c r="G19">
+        <v>1.729539562089682</v>
+      </c>
+      <c r="H19">
+        <v>-0.370481976228951</v>
+      </c>
+      <c r="I19">
+        <v>-0.370481976228951</v>
+      </c>
+      <c r="J19">
+        <v>-0.370481976228951</v>
+      </c>
+      <c r="K19">
+        <v>-0.3693381805551075</v>
+      </c>
+      <c r="L19">
+        <v>-0.3693381805551075</v>
+      </c>
+      <c r="M19">
+        <v>-0.3693381805551075</v>
+      </c>
+      <c r="N19">
+        <v>-0.001143795673843536</v>
+      </c>
+      <c r="O19">
+        <v>-0.001143795673843536</v>
+      </c>
+      <c r="P19">
+        <v>-0.001143795673843536</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1.359057585860731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4034</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4053</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -82184,8 +83891,62 @@
       <c r="D2">
         <v>1.071429</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1.737594071445008</v>
+      </c>
+      <c r="F2">
+        <v>0.0787572010319053</v>
+      </c>
+      <c r="G2">
+        <v>2.328668420182324</v>
+      </c>
+      <c r="H2">
+        <v>1.737594071445008</v>
+      </c>
+      <c r="I2">
+        <v>1.737594071445008</v>
+      </c>
+      <c r="J2">
+        <v>-0.559743976700919</v>
+      </c>
+      <c r="K2">
+        <v>-0.559743976700919</v>
+      </c>
+      <c r="L2">
+        <v>-0.559743976700919</v>
+      </c>
+      <c r="M2">
+        <v>-0.542828320449566</v>
+      </c>
+      <c r="N2">
+        <v>-0.542828320449566</v>
+      </c>
+      <c r="O2">
+        <v>-0.542828320449566</v>
+      </c>
+      <c r="P2">
+        <v>-0.01691565625135308</v>
+      </c>
+      <c r="Q2">
+        <v>-0.01691565625135308</v>
+      </c>
+      <c r="R2">
+        <v>-0.01691565625135308</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1.177850094744089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -82198,8 +83959,62 @@
       <c r="D3">
         <v>1.106897</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1.737120276777047</v>
+      </c>
+      <c r="F3">
+        <v>0.07739611451655758</v>
+      </c>
+      <c r="G3">
+        <v>2.243691961326306</v>
+      </c>
+      <c r="H3">
+        <v>1.737120276777047</v>
+      </c>
+      <c r="I3">
+        <v>1.737120276777047</v>
+      </c>
+      <c r="J3">
+        <v>-0.5523236295008012</v>
+      </c>
+      <c r="K3">
+        <v>-0.5523236295008012</v>
+      </c>
+      <c r="L3">
+        <v>-0.5523236295008012</v>
+      </c>
+      <c r="M3">
+        <v>-0.5364825407582504</v>
+      </c>
+      <c r="N3">
+        <v>-0.5364825407582504</v>
+      </c>
+      <c r="O3">
+        <v>-0.5364825407582504</v>
+      </c>
+      <c r="P3">
+        <v>-0.01584108874255088</v>
+      </c>
+      <c r="Q3">
+        <v>-0.01584108874255088</v>
+      </c>
+      <c r="R3">
+        <v>-0.01584108874255088</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1.184796647276246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -82212,8 +84027,62 @@
       <c r="D4">
         <v>1.289286</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1.736646482109087</v>
+      </c>
+      <c r="F4">
+        <v>0.1681400242161351</v>
+      </c>
+      <c r="G4">
+        <v>2.281413676522093</v>
+      </c>
+      <c r="H4">
+        <v>1.736646482109087</v>
+      </c>
+      <c r="I4">
+        <v>1.736646482109087</v>
+      </c>
+      <c r="J4">
+        <v>-0.543227811246829</v>
+      </c>
+      <c r="K4">
+        <v>-0.543227811246829</v>
+      </c>
+      <c r="L4">
+        <v>-0.543227811246829</v>
+      </c>
+      <c r="M4">
+        <v>-0.528445461760782</v>
+      </c>
+      <c r="N4">
+        <v>-0.528445461760782</v>
+      </c>
+      <c r="O4">
+        <v>-0.528445461760782</v>
+      </c>
+      <c r="P4">
+        <v>-0.01478234948604682</v>
+      </c>
+      <c r="Q4">
+        <v>-0.01478234948604682</v>
+      </c>
+      <c r="R4">
+        <v>-0.01478234948604682</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1.193418670862258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -82226,8 +84095,62 @@
       <c r="D5">
         <v>0.9793103</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1.736172687441127</v>
+      </c>
+      <c r="F5">
+        <v>0.1009291008829392</v>
+      </c>
+      <c r="G5">
+        <v>2.268108641741043</v>
+      </c>
+      <c r="H5">
+        <v>1.736172687441127</v>
+      </c>
+      <c r="I5">
+        <v>1.736172687441127</v>
+      </c>
+      <c r="J5">
+        <v>-0.5324945000219258</v>
+      </c>
+      <c r="K5">
+        <v>-0.5324945000219258</v>
+      </c>
+      <c r="L5">
+        <v>-0.5324945000219258</v>
+      </c>
+      <c r="M5">
+        <v>-0.5187545199518582</v>
+      </c>
+      <c r="N5">
+        <v>-0.5187545199518582</v>
+      </c>
+      <c r="O5">
+        <v>-0.5187545199518582</v>
+      </c>
+      <c r="P5">
+        <v>-0.01373998007006757</v>
+      </c>
+      <c r="Q5">
+        <v>-0.01373998007006757</v>
+      </c>
+      <c r="R5">
+        <v>-0.01373998007006757</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1.203678187419201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -82240,8 +84163,62 @@
       <c r="D6">
         <v>1.042857</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1.735698892773166</v>
+      </c>
+      <c r="F6">
+        <v>0.1277466928345994</v>
+      </c>
+      <c r="G6">
+        <v>2.405639328111716</v>
+      </c>
+      <c r="H6">
+        <v>1.735698892773166</v>
+      </c>
+      <c r="I6">
+        <v>1.735698892773166</v>
+      </c>
+      <c r="J6">
+        <v>-0.5202420294256299</v>
+      </c>
+      <c r="K6">
+        <v>-0.5202420294256299</v>
+      </c>
+      <c r="L6">
+        <v>-0.5202420294256299</v>
+      </c>
+      <c r="M6">
+        <v>-0.5075275175049007</v>
+      </c>
+      <c r="N6">
+        <v>-0.5075275175049007</v>
+      </c>
+      <c r="O6">
+        <v>-0.5075275175049007</v>
+      </c>
+      <c r="P6">
+        <v>-0.01271451192072928</v>
+      </c>
+      <c r="Q6">
+        <v>-0.01271451192072928</v>
+      </c>
+      <c r="R6">
+        <v>-0.01271451192072928</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1.215456863347536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -82254,8 +84231,62 @@
       <c r="D7">
         <v>1.406896</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1.735225098105206</v>
+      </c>
+      <c r="F7">
+        <v>0.1827039274270616</v>
+      </c>
+      <c r="G7">
+        <v>2.405409892467582</v>
+      </c>
+      <c r="H7">
+        <v>1.735225098105206</v>
+      </c>
+      <c r="I7">
+        <v>1.735225098105206</v>
+      </c>
+      <c r="J7">
+        <v>-0.506665254612253</v>
+      </c>
+      <c r="K7">
+        <v>-0.506665254612253</v>
+      </c>
+      <c r="L7">
+        <v>-0.506665254612253</v>
+      </c>
+      <c r="M7">
+        <v>-0.494958788468657</v>
+      </c>
+      <c r="N7">
+        <v>-0.494958788468657</v>
+      </c>
+      <c r="O7">
+        <v>-0.494958788468657</v>
+      </c>
+      <c r="P7">
+        <v>-0.01170646614359618</v>
+      </c>
+      <c r="Q7">
+        <v>-0.01170646614359618</v>
+      </c>
+      <c r="R7">
+        <v>-0.01170646614359618</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1.228559843492953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -82268,8 +84299,62 @@
       <c r="D8">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1.734751303437245</v>
+      </c>
+      <c r="F8">
+        <v>0.1833272785701363</v>
+      </c>
+      <c r="G8">
+        <v>2.283772693459088</v>
+      </c>
+      <c r="H8">
+        <v>1.734751303437245</v>
+      </c>
+      <c r="I8">
+        <v>1.734751303437245</v>
+      </c>
+      <c r="J8">
+        <v>-0.4920289378770107</v>
+      </c>
+      <c r="K8">
+        <v>-0.4920289378770107</v>
+      </c>
+      <c r="L8">
+        <v>-0.4920289378770107</v>
+      </c>
+      <c r="M8">
+        <v>-0.4813125845148218</v>
+      </c>
+      <c r="N8">
+        <v>-0.4813125845148218</v>
+      </c>
+      <c r="O8">
+        <v>-0.4813125845148218</v>
+      </c>
+      <c r="P8">
+        <v>-0.01071635336218896</v>
+      </c>
+      <c r="Q8">
+        <v>-0.01071635336218896</v>
+      </c>
+      <c r="R8">
+        <v>-0.01071635336218896</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1.242722365560235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -82282,8 +84367,62 @@
       <c r="D9">
         <v>1.035714</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1.734277508769285</v>
+      </c>
+      <c r="F9">
+        <v>0.1023521692723159</v>
+      </c>
+      <c r="G9">
+        <v>2.460107953405447</v>
+      </c>
+      <c r="H9">
+        <v>1.734277508769285</v>
+      </c>
+      <c r="I9">
+        <v>1.734277508769285</v>
+      </c>
+      <c r="J9">
+        <v>-0.4766585642442197</v>
+      </c>
+      <c r="K9">
+        <v>-0.4766585642442197</v>
+      </c>
+      <c r="L9">
+        <v>-0.4766585642442197</v>
+      </c>
+      <c r="M9">
+        <v>-0.4669138906780148</v>
+      </c>
+      <c r="N9">
+        <v>-0.4669138906780148</v>
+      </c>
+      <c r="O9">
+        <v>-0.4669138906780148</v>
+      </c>
+      <c r="P9">
+        <v>-0.009744673566205024</v>
+      </c>
+      <c r="Q9">
+        <v>-0.009744673566205024</v>
+      </c>
+      <c r="R9">
+        <v>-0.009744673566205024</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1.257618944525066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -82296,8 +84435,62 @@
       <c r="D10">
         <v>1.317241</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1.733803714101325</v>
+      </c>
+      <c r="F10">
+        <v>0.2030402030974302</v>
+      </c>
+      <c r="G10">
+        <v>2.438130803551603</v>
+      </c>
+      <c r="H10">
+        <v>1.733803714101325</v>
+      </c>
+      <c r="I10">
+        <v>1.733803714101325</v>
+      </c>
+      <c r="J10">
+        <v>-0.4609288787082055</v>
+      </c>
+      <c r="K10">
+        <v>-0.4609288787082055</v>
+      </c>
+      <c r="L10">
+        <v>-0.4609288787082055</v>
+      </c>
+      <c r="M10">
+        <v>-0.4521369627524683</v>
+      </c>
+      <c r="N10">
+        <v>-0.4521369627524683</v>
+      </c>
+      <c r="O10">
+        <v>-0.4521369627524683</v>
+      </c>
+      <c r="P10">
+        <v>-0.008791915955737228</v>
+      </c>
+      <c r="Q10">
+        <v>-0.008791915955737228</v>
+      </c>
+      <c r="R10">
+        <v>-0.008791915955737228</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1.27287483539312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -82310,8 +84503,62 @@
       <c r="D11">
         <v>1.228571</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1.733329919433365</v>
+      </c>
+      <c r="F11">
+        <v>0.1497040197137708</v>
+      </c>
+      <c r="G11">
+        <v>2.439350541017663</v>
+      </c>
+      <c r="H11">
+        <v>1.733329919433365</v>
+      </c>
+      <c r="I11">
+        <v>1.733329919433365</v>
+      </c>
+      <c r="J11">
+        <v>-0.4452505092850517</v>
+      </c>
+      <c r="K11">
+        <v>-0.4452505092850517</v>
+      </c>
+      <c r="L11">
+        <v>-0.4452505092850517</v>
+      </c>
+      <c r="M11">
+        <v>-0.4373919504820181</v>
+      </c>
+      <c r="N11">
+        <v>-0.4373919504820181</v>
+      </c>
+      <c r="O11">
+        <v>-0.4373919504820181</v>
+      </c>
+      <c r="P11">
+        <v>-0.00785855880303358</v>
+      </c>
+      <c r="Q11">
+        <v>-0.00785855880303358</v>
+      </c>
+      <c r="R11">
+        <v>-0.00785855880303358</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1.288079410148313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -82324,8 +84571,62 @@
       <c r="D12">
         <v>1.544828</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1.732856124765404</v>
+      </c>
+      <c r="F12">
+        <v>0.1569772040953756</v>
+      </c>
+      <c r="G12">
+        <v>2.277760859886464</v>
+      </c>
+      <c r="H12">
+        <v>1.732856124765404</v>
+      </c>
+      <c r="I12">
+        <v>1.732856124765404</v>
+      </c>
+      <c r="J12">
+        <v>-0.4300551009148568</v>
+      </c>
+      <c r="K12">
+        <v>-0.4300551009148568</v>
+      </c>
+      <c r="L12">
+        <v>-0.4300551009148568</v>
+      </c>
+      <c r="M12">
+        <v>-0.4231100316087395</v>
+      </c>
+      <c r="N12">
+        <v>-0.4231100316087395</v>
+      </c>
+      <c r="O12">
+        <v>-0.4231100316087395</v>
+      </c>
+      <c r="P12">
+        <v>-0.006945069306117269</v>
+      </c>
+      <c r="Q12">
+        <v>-0.006945069306117269</v>
+      </c>
+      <c r="R12">
+        <v>-0.006945069306117269</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1.302801023850548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -82338,8 +84639,62 @@
       <c r="D13">
         <v>1.657143</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1.732382330097444</v>
+      </c>
+      <c r="F13">
+        <v>0.2448330490942671</v>
+      </c>
+      <c r="G13">
+        <v>2.428870948908227</v>
+      </c>
+      <c r="H13">
+        <v>1.732382330097444</v>
+      </c>
+      <c r="I13">
+        <v>1.732382330097444</v>
+      </c>
+      <c r="J13">
+        <v>-0.4157794335477281</v>
+      </c>
+      <c r="K13">
+        <v>-0.4157794335477281</v>
+      </c>
+      <c r="L13">
+        <v>-0.4157794335477281</v>
+      </c>
+      <c r="M13">
+        <v>-0.4097275300936702</v>
+      </c>
+      <c r="N13">
+        <v>-0.4097275300936702</v>
+      </c>
+      <c r="O13">
+        <v>-0.4097275300936702</v>
+      </c>
+      <c r="P13">
+        <v>-0.006051903454057783</v>
+      </c>
+      <c r="Q13">
+        <v>-0.006051903454057783</v>
+      </c>
+      <c r="R13">
+        <v>-0.006051903454057783</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1.316602896549716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -82352,8 +84707,62 @@
       <c r="D14">
         <v>1.568965</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1.731908535429484</v>
+      </c>
+      <c r="F14">
+        <v>0.2165127543407404</v>
+      </c>
+      <c r="G14">
+        <v>2.405636489468698</v>
+      </c>
+      <c r="H14">
+        <v>1.731908535429484</v>
+      </c>
+      <c r="I14">
+        <v>1.731908535429484</v>
+      </c>
+      <c r="J14">
+        <v>-0.4028490313733219</v>
+      </c>
+      <c r="K14">
+        <v>-0.4028490313733219</v>
+      </c>
+      <c r="L14">
+        <v>-0.4028490313733219</v>
+      </c>
+      <c r="M14">
+        <v>-0.3976695254780407</v>
+      </c>
+      <c r="N14">
+        <v>-0.3976695254780407</v>
+      </c>
+      <c r="O14">
+        <v>-0.3976695254780407</v>
+      </c>
+      <c r="P14">
+        <v>-0.005179505895281335</v>
+      </c>
+      <c r="Q14">
+        <v>-0.005179505895281335</v>
+      </c>
+      <c r="R14">
+        <v>-0.005179505895281335</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1.329059504056162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -82366,8 +84775,62 @@
       <c r="D15">
         <v>1.42069</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1.731434740761523</v>
+      </c>
+      <c r="F15">
+        <v>0.3024060951192345</v>
+      </c>
+      <c r="G15">
+        <v>2.391907238455756</v>
+      </c>
+      <c r="H15">
+        <v>1.731434740761523</v>
+      </c>
+      <c r="I15">
+        <v>1.731434740761523</v>
+      </c>
+      <c r="J15">
+        <v>-0.3916617879433398</v>
+      </c>
+      <c r="K15">
+        <v>-0.3916617879433398</v>
+      </c>
+      <c r="L15">
+        <v>-0.3916617879433398</v>
+      </c>
+      <c r="M15">
+        <v>-0.3873334781339848</v>
+      </c>
+      <c r="N15">
+        <v>-0.3873334781339848</v>
+      </c>
+      <c r="O15">
+        <v>-0.3873334781339848</v>
+      </c>
+      <c r="P15">
+        <v>-0.004328309809355033</v>
+      </c>
+      <c r="Q15">
+        <v>-0.004328309809355033</v>
+      </c>
+      <c r="R15">
+        <v>-0.004328309809355033</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1.339772952818184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -82380,8 +84843,62 @@
       <c r="D16">
         <v>1.228571</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1.730960946093563</v>
+      </c>
+      <c r="F16">
+        <v>0.2772369906587898</v>
+      </c>
+      <c r="G16">
+        <v>2.408424538789537</v>
+      </c>
+      <c r="H16">
+        <v>1.730960946093563</v>
+      </c>
+      <c r="I16">
+        <v>1.730960946093563</v>
+      </c>
+      <c r="J16">
+        <v>-0.3825721342191833</v>
+      </c>
+      <c r="K16">
+        <v>-0.3825721342191833</v>
+      </c>
+      <c r="L16">
+        <v>-0.3825721342191833</v>
+      </c>
+      <c r="M16">
+        <v>-0.3790733974335553</v>
+      </c>
+      <c r="N16">
+        <v>-0.3790733974335553</v>
+      </c>
+      <c r="O16">
+        <v>-0.3790733974335553</v>
+      </c>
+      <c r="P16">
+        <v>-0.003498736785628075</v>
+      </c>
+      <c r="Q16">
+        <v>-0.003498736785628075</v>
+      </c>
+      <c r="R16">
+        <v>-0.003498736785628075</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1.34838881187438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -82394,8 +84911,62 @@
       <c r="D17">
         <v>2.27931</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1.730487151425603</v>
+      </c>
+      <c r="F17">
+        <v>0.1825806126180849</v>
+      </c>
+      <c r="G17">
+        <v>2.46543658891659</v>
+      </c>
+      <c r="H17">
+        <v>1.730487151425603</v>
+      </c>
+      <c r="I17">
+        <v>1.730487151425603</v>
+      </c>
+      <c r="J17">
+        <v>-0.37587626192021</v>
+      </c>
+      <c r="K17">
+        <v>-0.37587626192021</v>
+      </c>
+      <c r="L17">
+        <v>-0.37587626192021</v>
+      </c>
+      <c r="M17">
+        <v>-0.3731850652159587</v>
+      </c>
+      <c r="N17">
+        <v>-0.3731850652159587</v>
+      </c>
+      <c r="O17">
+        <v>-0.3731850652159587</v>
+      </c>
+      <c r="P17">
+        <v>-0.002691196704251125</v>
+      </c>
+      <c r="Q17">
+        <v>-0.002691196704251125</v>
+      </c>
+      <c r="R17">
+        <v>-0.002691196704251125</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1.354610889505393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -82408,8 +84979,62 @@
       <c r="D18">
         <v>1.867857</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1.730013356757642</v>
+      </c>
+      <c r="F18">
+        <v>0.3106305417467455</v>
+      </c>
+      <c r="G18">
+        <v>2.514893601956908</v>
+      </c>
+      <c r="H18">
+        <v>1.730013356757642</v>
+      </c>
+      <c r="I18">
+        <v>1.730013356757642</v>
+      </c>
+      <c r="J18">
+        <v>-0.3717988849143548</v>
+      </c>
+      <c r="K18">
+        <v>-0.3717988849143548</v>
+      </c>
+      <c r="L18">
+        <v>-0.3717988849143548</v>
+      </c>
+      <c r="M18">
+        <v>-0.3698927972900834</v>
+      </c>
+      <c r="N18">
+        <v>-0.3698927972900834</v>
+      </c>
+      <c r="O18">
+        <v>-0.3698927972900834</v>
+      </c>
+      <c r="P18">
+        <v>-0.001906087624271341</v>
+      </c>
+      <c r="Q18">
+        <v>-0.001906087624271341</v>
+      </c>
+      <c r="R18">
+        <v>-0.001906087624271341</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1.358214471843287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -82421,6 +85046,60 @@
       </c>
       <c r="D19">
         <v>1.855173</v>
+      </c>
+      <c r="E19">
+        <v>1.729539562089682</v>
+      </c>
+      <c r="F19">
+        <v>0.3264393409966977</v>
+      </c>
+      <c r="G19">
+        <v>2.465941669354299</v>
+      </c>
+      <c r="H19">
+        <v>1.729539562089682</v>
+      </c>
+      <c r="I19">
+        <v>1.729539562089682</v>
+      </c>
+      <c r="J19">
+        <v>-0.370481976228951</v>
+      </c>
+      <c r="K19">
+        <v>-0.370481976228951</v>
+      </c>
+      <c r="L19">
+        <v>-0.370481976228951</v>
+      </c>
+      <c r="M19">
+        <v>-0.3693381805551075</v>
+      </c>
+      <c r="N19">
+        <v>-0.3693381805551075</v>
+      </c>
+      <c r="O19">
+        <v>-0.3693381805551075</v>
+      </c>
+      <c r="P19">
+        <v>-0.001143795673843536</v>
+      </c>
+      <c r="Q19">
+        <v>-0.001143795673843536</v>
+      </c>
+      <c r="R19">
+        <v>-0.001143795673843536</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1.359057585860731</v>
       </c>
     </row>
   </sheetData>
